--- a/your-project/mortality_rate.xlsx
+++ b/your-project/mortality_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E41CB-F8FC-3642-B748-F958FDF580D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B38F91A-FA74-DA42-8A34-5B14EA414AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15680" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,11 +889,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>156</v>

--- a/your-project/mortality_rate.xlsx
+++ b/your-project/mortality_rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albabalcells/Pictures/Ironhack/Ironhack Labs/Labs W2/Project-Week-2-Barcelona/your-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B38F91A-FA74-DA42-8A34-5B14EA414AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D55C54-C6B3-3F4E-86B3-EAFDE2383428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15680" xr2:uid="{0748EBAD-05C8-D740-9865-64D926FCD2E1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="85">
   <si>
     <t>Ciutat Vella</t>
   </si>
@@ -41,463 +41,244 @@
     <t>el Raval</t>
   </si>
   <si>
-    <t>1.005,4</t>
-  </si>
-  <si>
     <t>el Barri Gòtic</t>
   </si>
   <si>
-    <t>1.004,5</t>
-  </si>
-  <si>
     <t>la Barceloneta</t>
   </si>
   <si>
-    <t>1.090,5</t>
-  </si>
-  <si>
     <t>Sant Pere, Santa Caterina i la Ribera</t>
   </si>
   <si>
-    <t>911,4</t>
-  </si>
-  <si>
     <t>Eixample</t>
   </si>
   <si>
     <t>el Fort Pienc</t>
   </si>
   <si>
-    <t>807,6</t>
-  </si>
-  <si>
     <t>la Sagrada Família</t>
   </si>
   <si>
-    <t>785,9</t>
-  </si>
-  <si>
     <t>la Dreta de l'Eixample</t>
   </si>
   <si>
-    <t>897,2</t>
-  </si>
-  <si>
     <t>l'Antiga Esquerra de l'Eixample</t>
   </si>
   <si>
-    <t>802,8</t>
-  </si>
-  <si>
     <t>la Nova Esquerra de l'Eixample</t>
   </si>
   <si>
-    <t>736,1</t>
-  </si>
-  <si>
     <t>Sant Antoni</t>
   </si>
   <si>
-    <t>737,3</t>
-  </si>
-  <si>
     <t>Sants-Montjuïc</t>
   </si>
   <si>
     <t>el Poble Sec - Parc Montjuïc</t>
   </si>
   <si>
-    <t>883,9</t>
-  </si>
-  <si>
     <t>la Marina del Prat Vermell - Zona Franca</t>
   </si>
   <si>
-    <t>1.139,9</t>
-  </si>
-  <si>
     <t>la Marina de Port</t>
   </si>
   <si>
-    <t>815,1</t>
-  </si>
-  <si>
     <t>la Font de la Guatlla</t>
   </si>
   <si>
-    <t>1.049,1</t>
-  </si>
-  <si>
     <t>Hostafrancs</t>
   </si>
   <si>
-    <t>831,3</t>
-  </si>
-  <si>
     <t>la Bordeta</t>
   </si>
   <si>
-    <t>759,1</t>
-  </si>
-  <si>
     <t>Sants - Badal</t>
   </si>
   <si>
-    <t>729,5</t>
-  </si>
-  <si>
     <t>Sants</t>
   </si>
   <si>
-    <t>782,1</t>
-  </si>
-  <si>
     <t>Les Corts</t>
   </si>
   <si>
     <t>les Corts</t>
   </si>
   <si>
-    <t>720,4</t>
-  </si>
-  <si>
     <t>la Maternitat i Sant Ramon</t>
   </si>
   <si>
-    <t>649,9</t>
-  </si>
-  <si>
     <t>Pedralbes</t>
   </si>
   <si>
-    <t>661,6</t>
-  </si>
-  <si>
     <t>Sarrià-Sant Gervasi</t>
   </si>
   <si>
     <t>Vallvidrera, el Tibidabo i les Planes</t>
   </si>
   <si>
-    <t>1.251,1</t>
-  </si>
-  <si>
     <t>Sarrià</t>
   </si>
   <si>
-    <t>758,7</t>
-  </si>
-  <si>
     <t>les Tres Torres</t>
   </si>
   <si>
-    <t>708,5</t>
-  </si>
-  <si>
     <t>Sant Gervasi - la Bonanova</t>
   </si>
   <si>
-    <t>775,5</t>
-  </si>
-  <si>
     <t>Sant Gervasi - Galvany</t>
   </si>
   <si>
-    <t>716,1</t>
-  </si>
-  <si>
     <t>el Putxet i el Farró</t>
   </si>
   <si>
-    <t>721,4</t>
-  </si>
-  <si>
     <t>Gràcia</t>
   </si>
   <si>
     <t>Vallcarca i els Penitents</t>
   </si>
   <si>
-    <t>777,2</t>
-  </si>
-  <si>
     <t>el Coll</t>
   </si>
   <si>
-    <t>743,4</t>
-  </si>
-  <si>
     <t>la Salut</t>
   </si>
   <si>
-    <t>869,3</t>
-  </si>
-  <si>
     <t>la Vila de Gràcia</t>
   </si>
   <si>
-    <t>814,0</t>
-  </si>
-  <si>
     <t>el Camp d'en Grassot i Gràcia Nova</t>
   </si>
   <si>
-    <t>821,6</t>
-  </si>
-  <si>
     <t>Horta-Guinardó</t>
   </si>
   <si>
     <t>el Baix Guinardó</t>
   </si>
   <si>
-    <t>836,6</t>
-  </si>
-  <si>
     <t>Can Baró</t>
   </si>
   <si>
-    <t>861,0</t>
-  </si>
-  <si>
     <t>el Guinardó</t>
   </si>
   <si>
-    <t>733,8</t>
-  </si>
-  <si>
     <t>la Font d'en Fargues</t>
   </si>
   <si>
-    <t>826,5</t>
-  </si>
-  <si>
     <t>el Carmel</t>
   </si>
   <si>
-    <t>794,2</t>
-  </si>
-  <si>
     <t>la Teixonera</t>
   </si>
   <si>
-    <t>858,5</t>
-  </si>
-  <si>
     <t>Sant Genís dels Agudells</t>
   </si>
   <si>
-    <t>929,9</t>
-  </si>
-  <si>
     <t>Montbau</t>
   </si>
   <si>
-    <t>1.052,9</t>
-  </si>
-  <si>
     <t>la Vall d'Hebron</t>
   </si>
   <si>
-    <t>854,0</t>
-  </si>
-  <si>
     <t>la Clota</t>
   </si>
   <si>
-    <t>1.033,9</t>
-  </si>
-  <si>
     <t>Horta</t>
   </si>
   <si>
-    <t>805,5</t>
-  </si>
-  <si>
     <t>Nou Barris</t>
   </si>
   <si>
     <t>Vilapicina i la Torre Llobeta</t>
   </si>
   <si>
-    <t>795,4</t>
-  </si>
-  <si>
     <t>Porta</t>
   </si>
   <si>
-    <t>758,1</t>
-  </si>
-  <si>
     <t>el Turó de la Peira</t>
   </si>
   <si>
-    <t>729,4</t>
-  </si>
-  <si>
     <t>Can Peguera</t>
   </si>
   <si>
-    <t>968,0</t>
-  </si>
-  <si>
     <t>la Guineueta</t>
   </si>
   <si>
-    <t>735,9</t>
-  </si>
-  <si>
     <t>Canyelles</t>
   </si>
   <si>
-    <t>804,9</t>
-  </si>
-  <si>
     <t>les Roquetes</t>
   </si>
   <si>
-    <t>869,4</t>
-  </si>
-  <si>
     <t>Verdun</t>
   </si>
   <si>
-    <t>776,7</t>
-  </si>
-  <si>
     <t>la Prosperitat</t>
   </si>
   <si>
-    <t>754,2</t>
-  </si>
-  <si>
     <t>la Trinitat Nova</t>
   </si>
   <si>
-    <t>1.099,0</t>
-  </si>
-  <si>
     <t>Torre Baró</t>
   </si>
   <si>
-    <t>945,9</t>
-  </si>
-  <si>
     <t>Ciutat Meridiana</t>
   </si>
   <si>
-    <t>793,9</t>
-  </si>
-  <si>
     <t>Vallbona</t>
   </si>
   <si>
-    <t>1.479,2</t>
-  </si>
-  <si>
     <t>Sant Andreu</t>
   </si>
   <si>
     <t>la Trinitat Vella</t>
   </si>
   <si>
-    <t>756,9</t>
-  </si>
-  <si>
     <t>Baró de Viver</t>
   </si>
   <si>
-    <t>1.067,6</t>
-  </si>
-  <si>
     <t>el Bon Pastor</t>
   </si>
   <si>
-    <t>959,9</t>
-  </si>
-  <si>
-    <t>763,0</t>
-  </si>
-  <si>
     <t>la Sagrera</t>
   </si>
   <si>
-    <t>742,4</t>
-  </si>
-  <si>
     <t>el Congrés i els Indians</t>
   </si>
   <si>
-    <t>748,5</t>
-  </si>
-  <si>
     <t>Navas</t>
   </si>
   <si>
-    <t>696,0</t>
-  </si>
-  <si>
     <t>Sant Martí</t>
   </si>
   <si>
     <t>el Camp de l'Arpa del Clot</t>
   </si>
   <si>
-    <t>758,0</t>
-  </si>
-  <si>
     <t>el Clot</t>
   </si>
   <si>
-    <t>757,7</t>
-  </si>
-  <si>
     <t>el Parc i la Llacuna del Poblenou</t>
   </si>
   <si>
-    <t>868,2</t>
-  </si>
-  <si>
     <t>la Vila Olímpica del Poblenou</t>
   </si>
   <si>
-    <t>641,5</t>
-  </si>
-  <si>
     <t>el Poblenou</t>
   </si>
   <si>
-    <t>864,1</t>
-  </si>
-  <si>
     <t>Diagonal Mar i el Front Marítim del Poblenou</t>
   </si>
   <si>
-    <t>731,7</t>
-  </si>
-  <si>
     <t>el Besòs i el Maresme</t>
   </si>
   <si>
-    <t>803,2</t>
-  </si>
-  <si>
     <t>Provençals del Poblenou</t>
   </si>
   <si>
-    <t>774,7</t>
-  </si>
-  <si>
     <t>Sant Martí de Provençals</t>
   </si>
   <si>
-    <t>761,1</t>
-  </si>
-  <si>
     <t>la Verneda i la Pau</t>
-  </si>
-  <si>
-    <t>813,8</t>
   </si>
   <si>
     <t>Nbh</t>
@@ -877,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D132A3B-D74F-D74A-AF56-A4F11ABE221B}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,13 +671,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,8 +687,8 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="2">
+        <v>1005.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1004.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -926,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1090.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,769 +718,769 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>911.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>807.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>785.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>897.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
+      <c r="C9" s="2">
+        <v>802.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>736.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>737.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>883.9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1139.9000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>815.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1049.0999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>831.3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>759.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>729.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>782.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>720.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>649.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>661.6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1251.0999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="2">
+        <v>758.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>708.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
+      </c>
+      <c r="C26" s="2">
+        <v>775.5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="2">
+        <v>716.1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="2">
+        <v>721.4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="2">
+        <v>777.2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
+        <v>743.4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>869.3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="C32" s="2">
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>821.6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
+      </c>
+      <c r="C34" s="2">
+        <v>836.6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="2">
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="2">
+        <v>733.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="C37" s="2">
+        <v>826.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>794.2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
+      </c>
+      <c r="C39" s="2">
+        <v>858.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>929.9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1052.9000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1033.9000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="2">
+        <v>805.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="C45" s="2">
+        <v>795.4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="C46" s="2">
+        <v>758.1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="C47" s="2">
+        <v>729.4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="C48" s="2">
+        <v>968</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
+      </c>
+      <c r="C49" s="2">
+        <v>735.9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="C50" s="2">
+        <v>804.9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="C51" s="2">
+        <v>869.4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
+      </c>
+      <c r="C52" s="2">
+        <v>776.7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
+      </c>
+      <c r="C53" s="2">
+        <v>754.2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1099</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
+      </c>
+      <c r="C55" s="2">
+        <v>945.9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
+      </c>
+      <c r="C56" s="2">
+        <v>793.9</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1479.2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
+      </c>
+      <c r="C58" s="2">
+        <v>756.9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1067.5999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="2">
+        <v>959.9</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
+      </c>
+      <c r="C61" s="2">
+        <v>763</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
+      </c>
+      <c r="C62" s="2">
+        <v>742.4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>131</v>
+        <v>69</v>
+      </c>
+      <c r="C63" s="2">
+        <v>748.5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="C64" s="2">
+        <v>696</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
+      </c>
+      <c r="C65" s="2">
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>73</v>
+      </c>
+      <c r="C66" s="2">
+        <v>757.7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
+      </c>
+      <c r="C67" s="2">
+        <v>868.2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
+      </c>
+      <c r="C68" s="2">
+        <v>641.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="C69" s="2">
+        <v>864.1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>77</v>
+      </c>
+      <c r="C70" s="2">
+        <v>731.7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
+      </c>
+      <c r="C71" s="2">
+        <v>803.2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>150</v>
+        <v>79</v>
+      </c>
+      <c r="C72" s="2">
+        <v>774.7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
+      </c>
+      <c r="C73" s="2">
+        <v>761.1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>81</v>
+      </c>
+      <c r="C74" s="2">
+        <v>813.8</v>
       </c>
     </row>
   </sheetData>
